--- a/assets/bulletin.xlsx
+++ b/assets/bulletin.xlsx
@@ -730,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -831,31 +831,205 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -867,41 +1041,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,244 +1104,67 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1174,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,13 +1597,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3"/>
@@ -1611,13 +1617,13 @@
       <c r="N1" s="178"/>
     </row>
     <row r="2" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
@@ -1625,19 +1631,19 @@
       <c r="J2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
     </row>
     <row r="3" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
@@ -1645,19 +1651,19 @@
       <c r="J3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="133"/>
     </row>
     <row r="4" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -1665,19 +1671,19 @@
       <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="133"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
@@ -1685,19 +1691,19 @@
       <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="133"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="175"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
@@ -1705,19 +1711,19 @@
       <c r="J6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="75"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="133"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="157"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
@@ -1725,44 +1731,44 @@
       <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="75"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="133"/>
     </row>
     <row r="8" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="160"/>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -1771,28 +1777,28 @@
       <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="123" t="s">
+      <c r="K10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="126"/>
-      <c r="N10" s="112" t="s">
+      <c r="M10" s="121"/>
+      <c r="N10" s="124" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1817,12 +1823,12 @@
       <c r="H11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="113"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="125"/>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
@@ -2065,10 +2071,10 @@
       <c r="N23" s="62"/>
     </row>
     <row r="24" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="89"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -2101,142 +2107,142 @@
       <c r="N25" s="57"/>
     </row>
     <row r="26" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="5"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="133"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="109" t="s">
+      <c r="I27" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="115"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="130"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="109" t="s">
+      <c r="I28" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="115"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="130"/>
     </row>
     <row r="29" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="109" t="s">
+      <c r="I29" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="110"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="115"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="130"/>
     </row>
     <row r="30" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="30"/>
-      <c r="I30" s="109" t="s">
+      <c r="I30" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="115"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="130"/>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="146"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="109" t="s">
+      <c r="I31" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="110"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="115"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="130"/>
     </row>
     <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="104"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="142"/>
     </row>
     <row r="33" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
@@ -2354,301 +2360,351 @@
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="129" t="s">
+      <c r="A40" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="129" t="s">
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="129" t="s">
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="131"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="105"/>
     </row>
     <row r="41" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="152"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="132" t="s">
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="133"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="52"/>
       <c r="H41" s="1"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="154"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="81"/>
     </row>
     <row r="42" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="155"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="134" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="157"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="84"/>
     </row>
     <row r="43" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="155"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="157"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="155"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="157"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="53"/>
       <c r="F44" s="54"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="55"/>
-      <c r="J44" s="155"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
-      <c r="N44" s="157"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="84"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="155"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="157"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="55"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="156"/>
-      <c r="L45" s="156"/>
-      <c r="M45" s="156"/>
-      <c r="N45" s="157"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="84"/>
     </row>
     <row r="46" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="155"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="157"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="53"/>
       <c r="F46" s="54"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="157"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="84"/>
     </row>
     <row r="47" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="155"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="157"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="84"/>
     </row>
     <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="158"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="173" t="s">
+      <c r="A48" s="85"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="174"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="174"/>
-      <c r="I48" s="175"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="159"/>
-      <c r="L48" s="159"/>
-      <c r="M48" s="159"/>
-      <c r="N48" s="160"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="146" t="s">
+      <c r="A49" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="147"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147"/>
-      <c r="N49" s="148"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="75"/>
     </row>
     <row r="50" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="149"/>
-      <c r="B50" s="150"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="150"/>
-      <c r="N50" s="151"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="78"/>
     </row>
     <row r="51" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="161" t="s">
+      <c r="A51" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="162"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="162"/>
-      <c r="N51" s="163"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="90"/>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="164"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="165"/>
-      <c r="K52" s="165"/>
-      <c r="L52" s="165"/>
-      <c r="M52" s="165"/>
-      <c r="N52" s="166"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="93"/>
     </row>
     <row r="53" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="167" t="s">
+      <c r="A53" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="168"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="168"/>
-      <c r="K53" s="168"/>
-      <c r="L53" s="168"/>
-      <c r="M53" s="168"/>
-      <c r="N53" s="169"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="96"/>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="167"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="168"/>
-      <c r="M54" s="168"/>
-      <c r="N54" s="169"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="96"/>
     </row>
     <row r="55" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="170" t="s">
+      <c r="A55" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="171"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="171"/>
-      <c r="M55" s="171"/>
-      <c r="N55" s="172"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="99"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="137" t="s">
+      <c r="A56" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="138"/>
-      <c r="M56" s="138"/>
-      <c r="N56" s="139"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:I42"/>
     <mergeCell ref="A56:N56"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="E47:I47"/>
@@ -2659,56 +2715,6 @@
     <mergeCell ref="A53:N54"/>
     <mergeCell ref="A55:N55"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
